--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C181BF-A7CE-40AB-BB9A-5B976C39A7BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52DE3A7-7353-478F-9EED-F15A981A7E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,18 +791,17 @@
   <dimension ref="B1:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -927,7 +926,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="12" t="s">
@@ -955,7 +954,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="12"/>
@@ -979,7 +978,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
@@ -1001,7 +1000,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="12"/>
@@ -1023,7 +1022,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="12"/>
@@ -1046,7 +1045,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="12"/>
@@ -1067,7 +1066,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="12"/>
@@ -1088,7 +1087,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="12"/>
@@ -1109,7 +1108,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="12"/>
@@ -1134,7 +1133,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="12"/>
@@ -1155,7 +1154,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="12"/>
@@ -1176,7 +1175,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="12"/>
@@ -1197,7 +1196,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="12"/>
@@ -1220,7 +1219,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="12"/>
@@ -1241,7 +1240,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="12"/>
@@ -1262,7 +1261,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="12"/>
@@ -1283,7 +1282,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="12"/>
@@ -1308,7 +1307,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="12"/>
@@ -1329,7 +1328,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="12"/>
@@ -1350,7 +1349,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="12"/>
@@ -1371,7 +1370,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="12"/>
@@ -1392,7 +1391,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="12"/>
@@ -1413,7 +1412,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="12"/>
@@ -1438,7 +1437,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="12"/>
@@ -1459,7 +1458,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="12"/>
@@ -1480,7 +1479,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="12"/>
@@ -1501,7 +1500,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
@@ -1522,7 +1521,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="12"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52DE3A7-7353-478F-9EED-F15A981A7E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB732F0-12D8-4411-B730-AB733D39D0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>搜索公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,23 +440,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,27 +477,6 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,14 +486,23 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -790,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -834,7 +835,6 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -899,22 +899,22 @@
     <row r="6" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1"/>
@@ -926,23 +926,23 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="22">
+      <c r="H7" s="6"/>
+      <c r="I7" s="9">
         <v>2.9</v>
       </c>
       <c r="J7" s="1"/>
@@ -954,19 +954,19 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="22">
+      <c r="H8" s="6"/>
+      <c r="I8" s="9">
         <v>2.9</v>
       </c>
       <c r="J8" s="1"/>
@@ -978,17 +978,17 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="21" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="1"/>
@@ -1000,17 +1000,17 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="21" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1"/>
@@ -1022,17 +1022,17 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="21" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="1"/>
@@ -1045,17 +1045,19 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="21" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1066,17 +1068,19 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1087,17 +1091,17 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1108,21 +1112,21 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1133,17 +1137,17 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="21" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1154,17 +1158,17 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="21" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1175,17 +1179,17 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="21" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1196,19 +1200,19 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1219,17 +1223,17 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="21" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1240,17 +1244,17 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="21" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1261,19 +1265,19 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="21" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1282,23 +1286,23 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1307,19 +1311,19 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="21" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1328,19 +1332,19 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="21" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1349,19 +1353,19 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="21" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1370,19 +1374,19 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="14" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1391,17 +1395,17 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="23" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1412,21 +1416,21 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="18" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1437,17 +1441,17 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="14" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1458,17 +1462,17 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="14" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1479,17 +1483,17 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="14" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1500,17 +1504,17 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="14" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1521,17 +1525,17 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="2:18" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="14" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1542,15 +1546,15 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1561,15 +1565,15 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1580,15 +1584,15 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1599,15 +1603,15 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1618,15 +1622,15 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1637,15 +1641,15 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1656,15 +1660,15 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1675,15 +1679,15 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1694,762 +1698,762 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="2"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="F136" s="5"/>
+      <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="4:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="F137" s="5"/>
+      <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -2515,16 +2519,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="E7:E14"/>
+    <mergeCell ref="D7:D34"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="E15:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="E23:E28"/>
     <mergeCell ref="F23:F28"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="E7:E14"/>
-    <mergeCell ref="D7:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB732F0-12D8-4411-B730-AB733D39D0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41032F25-94B8-4262-8B5A-F07B7A13E4F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,30 @@
   </si>
   <si>
     <t>2.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加社团成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除社团成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除社团成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -466,6 +490,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R145"/>
+  <dimension ref="B1:R148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="F18" sqref="F18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -801,7 +828,7 @@
     <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -929,10 +956,10 @@
     <row r="7" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -957,9 +984,9 @@
     <row r="8" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -981,9 +1008,9 @@
     <row r="9" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
@@ -1003,9 +1030,9 @@
     <row r="10" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1025,9 +1052,9 @@
     <row r="11" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1048,14 +1075,14 @@
     <row r="12" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="12"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="1"/>
@@ -1071,15 +1098,15 @@
     <row r="13" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
-        <v>42</v>
+      <c r="I13" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1094,14 +1121,16 @@
     <row r="14" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="19"/>
       <c r="F14" s="13"/>
       <c r="G14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1115,18 +1144,16 @@
     <row r="15" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="8" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1140,14 +1167,16 @@
     <row r="16" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="12"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1161,14 +1190,16 @@
     <row r="17" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1182,14 +1213,18 @@
     <row r="18" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1203,16 +1238,14 @@
     <row r="19" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1226,11 +1259,11 @@
     <row r="20" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
@@ -1247,11 +1280,11 @@
     <row r="21" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
@@ -1268,11 +1301,13 @@
     <row r="22" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
@@ -1289,15 +1324,11 @@
     <row r="23" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
@@ -1314,11 +1345,11 @@
     <row r="24" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
@@ -1335,11 +1366,11 @@
     <row r="25" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
@@ -1356,11 +1387,15 @@
     <row r="26" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="G26" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
@@ -1374,14 +1409,14 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
+      <c r="D27" s="22"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
@@ -1398,11 +1433,11 @@
     <row r="28" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="16"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="10" t="s">
-        <v>36</v>
+      <c r="G28" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
@@ -1416,18 +1451,14 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>20</v>
+      <c r="D29" s="22"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
@@ -1444,11 +1475,11 @@
     <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="12"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
@@ -1462,14 +1493,14 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="6" t="s">
-        <v>39</v>
+      <c r="D31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
@@ -1486,11 +1517,15 @@
     <row r="32" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="12"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="G32" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
@@ -1507,11 +1542,11 @@
     <row r="33" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
@@ -1532,7 +1567,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="13"/>
       <c r="G34" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
@@ -1546,15 +1581,17 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1565,15 +1602,17 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1584,15 +1623,17 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1679,7 +1720,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
@@ -1698,45 +1739,78 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
@@ -2210,29 +2284,29 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="I109" s="2"/>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
@@ -2514,21 +2588,45 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
       <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G148" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="E7:E14"/>
-    <mergeCell ref="D7:D34"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E15:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="D7:D37"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="E7:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41032F25-94B8-4262-8B5A-F07B7A13E4F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B88EAD-9B81-47D9-AAFA-0F7C23DC70FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,7 +219,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>2.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +289,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -464,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,19 +473,13 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,6 +500,15 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,15 +517,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -818,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -831,7 +818,8 @@
     <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
@@ -956,20 +944,20 @@
     <row r="7" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>2.9</v>
       </c>
       <c r="J7" s="1"/>
@@ -984,16 +972,16 @@
     <row r="8" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>2.9</v>
       </c>
       <c r="J8" s="1"/>
@@ -1008,14 +996,14 @@
     <row r="9" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="1"/>
@@ -1030,14 +1018,14 @@
     <row r="10" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="8" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1"/>
@@ -1052,14 +1040,14 @@
     <row r="11" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="1"/>
@@ -1075,14 +1063,14 @@
     <row r="12" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="8" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="1"/>
@@ -1098,14 +1086,14 @@
     <row r="13" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="8" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="1"/>
@@ -1121,14 +1109,14 @@
     <row r="14" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="8" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>48</v>
       </c>
       <c r="J14" s="1"/>
@@ -1144,14 +1132,14 @@
     <row r="15" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="8" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J15" s="1"/>
@@ -1167,14 +1155,14 @@
     <row r="16" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J16" s="1"/>
@@ -1190,14 +1178,14 @@
     <row r="17" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J17" s="1"/>
@@ -1213,18 +1201,20 @@
     <row r="18" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1238,14 +1228,16 @@
     <row r="19" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="8" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1259,14 +1251,16 @@
     <row r="20" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="8" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1280,14 +1274,16 @@
     <row r="21" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1301,16 +1297,18 @@
     <row r="22" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="12" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1324,14 +1322,16 @@
     <row r="23" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="8" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1345,14 +1345,16 @@
     <row r="24" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="8" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1366,14 +1368,16 @@
     <row r="25" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1387,18 +1391,20 @@
     <row r="26" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1412,14 +1418,14 @@
     <row r="27" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="8" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1433,14 +1439,14 @@
     <row r="28" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="8" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1454,14 +1460,14 @@
     <row r="29" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="8" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1475,14 +1481,14 @@
     <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1496,14 +1502,16 @@
     <row r="31" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="10" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1517,18 +1525,18 @@
     <row r="32" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1542,14 +1550,14 @@
     <row r="33" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="13"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1563,14 +1571,14 @@
     <row r="34" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1584,14 +1592,14 @@
     <row r="35" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1605,14 +1613,14 @@
     <row r="36" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="13"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1626,14 +1634,14 @@
     <row r="37" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2619,7 +2627,6 @@
   <mergeCells count="10">
     <mergeCell ref="F32:F37"/>
     <mergeCell ref="E32:E37"/>
-    <mergeCell ref="F8:F15"/>
     <mergeCell ref="D7:D37"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="E18:E25"/>
@@ -2627,6 +2634,7 @@
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="E7:E17"/>
+    <mergeCell ref="F8:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B88EAD-9B81-47D9-AAFA-0F7C23DC70FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD88BE-CE7A-47D8-8B74-D3C03F02D509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,22 @@
   </si>
   <si>
     <t>2.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,9 +493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R148"/>
+  <dimension ref="B1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -944,10 +957,10 @@
     <row r="7" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -972,9 +985,9 @@
     <row r="8" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -996,9 +1009,9 @@
     <row r="9" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1018,9 +1031,9 @@
     <row r="10" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1040,9 +1053,9 @@
     <row r="11" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1063,9 +1076,9 @@
     <row r="12" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1086,9 +1099,9 @@
     <row r="13" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1109,9 +1122,9 @@
     <row r="14" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1132,9 +1145,9 @@
     <row r="15" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
@@ -1155,9 +1168,9 @@
     <row r="16" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
@@ -1178,9 +1191,9 @@
     <row r="17" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7" t="s">
         <v>46</v>
       </c>
@@ -1201,11 +1214,11 @@
     <row r="18" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -1228,9 +1241,9 @@
     <row r="19" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="11"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1251,9 +1264,9 @@
     <row r="20" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1274,9 +1287,9 @@
     <row r="21" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1297,9 +1310,9 @@
     <row r="22" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -1322,9 +1335,9 @@
     <row r="23" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1345,9 +1358,9 @@
     <row r="24" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="7" t="s">
         <v>30</v>
       </c>
@@ -1368,9 +1381,9 @@
     <row r="25" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="12"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1391,11 +1404,11 @@
     <row r="26" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -1418,14 +1431,16 @@
     <row r="27" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="11"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1439,14 +1454,16 @@
     <row r="28" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1460,14 +1477,16 @@
     <row r="29" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1481,14 +1500,16 @@
     <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="6" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1502,10 +1523,10 @@
     <row r="31" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="6"/>
@@ -1522,21 +1543,19 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>20</v>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1547,17 +1566,19 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="14"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="6" t="s">
-        <v>38</v>
+      <c r="G33" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1571,14 +1592,20 @@
     <row r="34" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="11"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G34" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1592,14 +1619,16 @@
     <row r="35" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="11"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1613,14 +1642,16 @@
     <row r="36" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="11"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1634,14 +1665,16 @@
     <row r="37" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1652,15 +1685,19 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1671,15 +1708,19 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1785,7 +1826,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="3"/>
@@ -1804,37 +1845,59 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="2:18" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
@@ -2316,21 +2379,21 @@
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+      <c r="I111" s="2"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D112" s="3"/>
@@ -2621,20 +2684,36 @@
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
       <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G150" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F32:F37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="D7:D37"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D7:D39"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="E18:E25"/>
     <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="F26:F31"/>
     <mergeCell ref="E7:E17"/>
     <mergeCell ref="F8:F17"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="E26:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD88BE-CE7A-47D8-8B74-D3C03F02D509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF6B48-54A5-47A2-9595-F0D506C7A91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="系统管理员" sheetId="1" r:id="rId1"/>
+    <sheet name="社团管理员" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +237,126 @@
   </si>
   <si>
     <t>2.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社团信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看社团信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看活动参加成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除活动信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件查询活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改成员职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量导入成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件查询审核列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核活动参加成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +433,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -455,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -472,8 +609,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,15 +653,6 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,13 +662,47 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - 着色 1" xfId="3" builtinId="30"/>
     <cellStyle name="60% - 着色 2" xfId="4" builtinId="36"/>
     <cellStyle name="60% - 着色 5" xfId="5" builtinId="48"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="6" builtinId="11"/>
     <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R150"/>
+  <dimension ref="B1:R149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -957,10 +1122,10 @@
     <row r="7" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -985,8 +1150,8 @@
     <row r="8" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
@@ -1009,8 +1174,8 @@
     <row r="9" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="10"/>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -1031,8 +1196,8 @@
     <row r="10" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
         <v>6</v>
@@ -1053,8 +1218,8 @@
     <row r="11" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="10"/>
       <c r="G11" s="7" t="s">
         <v>7</v>
@@ -1076,8 +1241,8 @@
     <row r="12" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="10"/>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -1099,8 +1264,8 @@
     <row r="13" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="10"/>
       <c r="G13" s="7" t="s">
         <v>8</v>
@@ -1122,8 +1287,8 @@
     <row r="14" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="10"/>
       <c r="G14" s="7" t="s">
         <v>9</v>
@@ -1145,8 +1310,8 @@
     <row r="15" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="10"/>
       <c r="G15" s="7" t="s">
         <v>43</v>
@@ -1168,8 +1333,8 @@
     <row r="16" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="10"/>
       <c r="G16" s="7" t="s">
         <v>45</v>
@@ -1191,8 +1356,8 @@
     <row r="17" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="11"/>
       <c r="G17" s="7" t="s">
         <v>46</v>
@@ -1214,7 +1379,7 @@
     <row r="18" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1406,7 @@
     <row r="19" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="13"/>
       <c r="F19" s="10"/>
       <c r="G19" s="7" t="s">
@@ -1264,7 +1429,7 @@
     <row r="20" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="16"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="13"/>
       <c r="F20" s="10"/>
       <c r="G20" s="7" t="s">
@@ -1287,7 +1452,7 @@
     <row r="21" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="13"/>
       <c r="F21" s="11"/>
       <c r="G21" s="7" t="s">
@@ -1310,7 +1475,7 @@
     <row r="22" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="13"/>
       <c r="F22" s="9" t="s">
         <v>16</v>
@@ -1335,7 +1500,7 @@
     <row r="23" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="13"/>
       <c r="F23" s="10"/>
       <c r="G23" s="7" t="s">
@@ -1358,7 +1523,7 @@
     <row r="24" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="16"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="13"/>
       <c r="F24" s="10"/>
       <c r="G24" s="7" t="s">
@@ -1381,7 +1546,7 @@
     <row r="25" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="16"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="14"/>
       <c r="F25" s="11"/>
       <c r="G25" s="7" t="s">
@@ -1404,7 +1569,7 @@
     <row r="26" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="12" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1596,7 @@
     <row r="27" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="13"/>
       <c r="F27" s="10"/>
       <c r="G27" s="7" t="s">
@@ -1454,7 +1619,7 @@
     <row r="28" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="13"/>
       <c r="F28" s="10"/>
       <c r="G28" s="7" t="s">
@@ -1477,7 +1642,7 @@
     <row r="29" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="13"/>
       <c r="F29" s="10"/>
       <c r="G29" s="7" t="s">
@@ -1500,7 +1665,7 @@
     <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="16"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="13"/>
       <c r="F30" s="10"/>
       <c r="G30" s="7" t="s">
@@ -1523,7 +1688,7 @@
     <row r="31" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="13"/>
       <c r="F31" s="10"/>
       <c r="G31" s="7" t="s">
@@ -1546,7 +1711,7 @@
     <row r="32" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="13"/>
       <c r="F32" s="10"/>
       <c r="G32" s="7" t="s">
@@ -1569,7 +1734,7 @@
     <row r="33" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="14"/>
       <c r="F33" s="11"/>
       <c r="G33" s="7" t="s">
@@ -1592,7 +1757,7 @@
     <row r="34" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1784,7 @@
     <row r="35" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="13"/>
       <c r="F35" s="10"/>
       <c r="G35" s="6" t="s">
@@ -1642,7 +1807,7 @@
     <row r="36" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="13"/>
       <c r="F36" s="10"/>
       <c r="G36" s="6" t="s">
@@ -1665,7 +1830,7 @@
     <row r="37" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="13"/>
       <c r="F37" s="10"/>
       <c r="G37" s="6" t="s">
@@ -1688,7 +1853,7 @@
     <row r="38" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="13"/>
       <c r="F38" s="10"/>
       <c r="G38" s="6" t="s">
@@ -1711,7 +1876,7 @@
     <row r="39" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="17"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="14"/>
       <c r="F39" s="11"/>
       <c r="G39" s="6" t="s">
@@ -1734,12 +1899,20 @@
     <row r="40" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1753,12 +1926,16 @@
     <row r="41" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1772,12 +1949,16 @@
     <row r="42" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1791,12 +1972,16 @@
     <row r="43" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -1810,12 +1995,16 @@
     <row r="44" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -1845,7 +2034,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="2:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="3"/>
@@ -1865,23 +2054,12 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
@@ -1891,13 +2069,13 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
@@ -2387,13 +2565,13 @@
       <c r="H110" s="3"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="4:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="2"/>
+      <c r="I111" s="3"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D112" s="3"/>
@@ -2692,21 +2870,15 @@
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-    </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G150" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="D7:D44"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="E34:E39"/>
-    <mergeCell ref="D7:D39"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="E18:E25"/>
     <mergeCell ref="F22:F25"/>
@@ -2719,4 +2891,475 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44ED92B9-110A-4634-8073-FCFB58766896}">
+  <dimension ref="A1:K48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="21"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="21"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="21"/>
+      <c r="G13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="21"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="21"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="21"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="21"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="21"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="21"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="21"/>
+      <c r="G20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="21"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="21"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="21"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="21"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="21"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="21"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="21"/>
+      <c r="G27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="21"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="21"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="21"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="21"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="21"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="21"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="21"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="21"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="21"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="21"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="21"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="21"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="21"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="21"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="21"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="F10:F48"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF6B48-54A5-47A2-9595-F0D506C7A91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1075104-A175-4424-B722-A7A82FB42BB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2898,7 +2898,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H25" sqref="H25:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1075104-A175-4424-B722-A7A82FB42BB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907C728-0307-4102-AB43-306746ACAAB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,14 @@
   </si>
   <si>
     <t>审核活动参加成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9-3.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,19 +643,43 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -662,37 +694,13 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R149"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:F44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -994,7 +1002,8 @@
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
@@ -1125,7 +1134,7 @@
       <c r="D7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1134,7 +1143,9 @@
       <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I7" s="8">
         <v>2.9</v>
       </c>
@@ -1151,14 +1162,16 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I8" s="8">
         <v>2.9</v>
       </c>
@@ -1175,12 +1188,14 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>21</v>
       </c>
@@ -1197,12 +1212,14 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1219,12 +1236,14 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1242,12 +1261,14 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I12" s="8" t="s">
         <v>42</v>
       </c>
@@ -1265,12 +1286,14 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I13" s="8" t="s">
         <v>44</v>
       </c>
@@ -1288,12 +1311,14 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I14" s="8" t="s">
         <v>48</v>
       </c>
@@ -1311,12 +1336,14 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I15" s="8" t="s">
         <v>47</v>
       </c>
@@ -1334,12 +1361,14 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I16" s="8" t="s">
         <v>47</v>
       </c>
@@ -1357,12 +1386,14 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I17" s="8" t="s">
         <v>47</v>
       </c>
@@ -1380,16 +1411,18 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I18" s="8" t="s">
         <v>48</v>
       </c>
@@ -1407,12 +1440,14 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I19" s="8" t="s">
         <v>48</v>
       </c>
@@ -1430,12 +1465,14 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I20" s="8" t="s">
         <v>48</v>
       </c>
@@ -1453,12 +1490,14 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I21" s="8" t="s">
         <v>48</v>
       </c>
@@ -1476,14 +1515,16 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I22" s="8" t="s">
         <v>48</v>
       </c>
@@ -1501,12 +1542,14 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I23" s="8" t="s">
         <v>48</v>
       </c>
@@ -1524,12 +1567,14 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I24" s="8" t="s">
         <v>48</v>
       </c>
@@ -1547,12 +1592,14 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1570,16 +1617,18 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I26" s="8" t="s">
         <v>48</v>
       </c>
@@ -1597,12 +1646,14 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I27" s="8" t="s">
         <v>49</v>
       </c>
@@ -1620,12 +1671,14 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I28" s="8" t="s">
         <v>49</v>
       </c>
@@ -1643,12 +1696,14 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I29" s="8" t="s">
         <v>49</v>
       </c>
@@ -1666,12 +1721,14 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I30" s="8" t="s">
         <v>49</v>
       </c>
@@ -1689,12 +1746,14 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I31" s="8" t="s">
         <v>48</v>
       </c>
@@ -1712,12 +1771,14 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I32" s="8" t="s">
         <v>52</v>
       </c>
@@ -1735,12 +1796,14 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I33" s="8" t="s">
         <v>52</v>
       </c>
@@ -1758,16 +1821,18 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I34" s="8" t="s">
         <v>49</v>
       </c>
@@ -1785,12 +1850,14 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I35" s="8" t="s">
         <v>49</v>
       </c>
@@ -1808,12 +1875,14 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I36" s="8" t="s">
         <v>49</v>
       </c>
@@ -1831,12 +1900,14 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I37" s="8" t="s">
         <v>49</v>
       </c>
@@ -1854,12 +1925,14 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I38" s="8" t="s">
         <v>49</v>
       </c>
@@ -1877,12 +1950,14 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="I39" s="8" t="s">
         <v>49</v>
       </c>
@@ -1900,10 +1975,10 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -1927,8 +2002,8 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="6" t="s">
         <v>56</v>
       </c>
@@ -1950,8 +2025,8 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="6" t="s">
         <v>57</v>
       </c>
@@ -1973,8 +2048,8 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="6" t="s">
         <v>58</v>
       </c>
@@ -1996,8 +2071,8 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="6" t="s">
         <v>59</v>
       </c>
@@ -2898,7 +2973,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H26"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2937,10 +3012,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="23" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="26" t="s">
@@ -2949,15 +3024,17 @@
       <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K10" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="10"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
@@ -2967,8 +3044,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="21"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="27"/>
       <c r="I12" s="7" t="s">
         <v>9</v>
@@ -2979,8 +3056,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="21"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="23" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="26" t="s">
@@ -2995,19 +3072,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="21"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="28" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="13" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="10"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="7" t="s">
         <v>67</v>
       </c>
@@ -3015,9 +3092,9 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="7" t="s">
         <v>82</v>
       </c>
@@ -3025,9 +3102,9 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="21"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="7" t="s">
         <v>68</v>
       </c>
@@ -3037,9 +3114,9 @@
       </c>
     </row>
     <row r="18" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="21"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="10"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="7" t="s">
         <v>69</v>
       </c>
@@ -3049,8 +3126,8 @@
       </c>
     </row>
     <row r="19" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="21"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="27"/>
       <c r="I19" s="7" t="s">
         <v>70</v>
@@ -3061,8 +3138,8 @@
       </c>
     </row>
     <row r="20" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="21"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="23" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="26" t="s">
@@ -3077,9 +3154,9 @@
       </c>
     </row>
     <row r="21" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="21"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="10"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="7" t="s">
         <v>75</v>
       </c>
@@ -3089,9 +3166,9 @@
       </c>
     </row>
     <row r="22" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="21"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="10"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="7" t="s">
         <v>76</v>
       </c>
@@ -3101,9 +3178,9 @@
       </c>
     </row>
     <row r="23" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="21"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="10"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="7" t="s">
         <v>77</v>
       </c>
@@ -3113,8 +3190,8 @@
       </c>
     </row>
     <row r="24" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="21"/>
-      <c r="G24" s="16"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="27"/>
       <c r="I24" s="7" t="s">
         <v>78</v>
@@ -3125,8 +3202,8 @@
       </c>
     </row>
     <row r="25" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="21"/>
-      <c r="G25" s="16"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="26" t="s">
         <v>25</v>
       </c>
@@ -3139,8 +3216,8 @@
       </c>
     </row>
     <row r="26" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="21"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="27"/>
       <c r="I26" s="7" t="s">
         <v>80</v>
@@ -3151,8 +3228,8 @@
       </c>
     </row>
     <row r="27" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="21"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="26" t="s">
@@ -3161,193 +3238,202 @@
       <c r="I27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K27" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="21"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K28" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="21"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K29" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="21"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="27"/>
       <c r="I30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K30" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="25"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="6"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="25"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="6"/>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="25"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6"/>
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="21"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="7"/>
       <c r="J34" s="6"/>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="21"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="25"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="21"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="25"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="7"/>
       <c r="J36" s="6"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="21"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="25"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="8"/>
     </row>
     <row r="38" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="21"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="25"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="21"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="25"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="21"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="25"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="12"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="21"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="25"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="12"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="21"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="25"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="21"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="25"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="21"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="21"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="21"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="8"/>
     </row>
     <row r="47" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="21"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="21"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F10:F48"/>
     <mergeCell ref="G20:G26"/>
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="H27:H30"/>
@@ -3357,7 +3443,6 @@
     <mergeCell ref="G13:G19"/>
     <mergeCell ref="H20:H24"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="F10:F48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907C728-0307-4102-AB43-306746ACAAB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC9060-14A5-4460-8CD8-1A3C92124E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批量导入成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件查询审核列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +361,10 @@
   </si>
   <si>
     <t>3.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,13 +694,13 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R149"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="8">
         <v>2.9</v>
@@ -1170,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="8">
         <v>2.9</v>
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>21</v>
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>21</v>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>21</v>
@@ -1267,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>42</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>44</v>
@@ -1317,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>48</v>
@@ -1342,7 +1342,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>47</v>
@@ -1367,7 +1367,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>47</v>
@@ -1392,7 +1392,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>47</v>
@@ -1421,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>48</v>
@@ -1446,7 +1446,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>48</v>
@@ -1471,7 +1471,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>48</v>
@@ -1496,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>48</v>
@@ -1523,7 +1523,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>48</v>
@@ -1548,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>48</v>
@@ -1573,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>48</v>
@@ -1598,7 +1598,7 @@
         <v>29</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>48</v>
@@ -1627,7 +1627,7 @@
         <v>32</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>48</v>
@@ -1652,7 +1652,7 @@
         <v>33</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>49</v>
@@ -1677,7 +1677,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>49</v>
@@ -1702,7 +1702,7 @@
         <v>35</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>49</v>
@@ -1727,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>49</v>
@@ -1752,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>48</v>
@@ -1777,7 +1777,7 @@
         <v>51</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>52</v>
@@ -1802,7 +1802,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>52</v>
@@ -1831,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>49</v>
@@ -1856,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>49</v>
@@ -1881,7 +1881,7 @@
         <v>39</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>49</v>
@@ -1906,7 +1906,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>49</v>
@@ -1931,7 +1931,7 @@
         <v>37</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>49</v>
@@ -1956,7 +1956,7 @@
         <v>41</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>49</v>
@@ -1984,7 +1984,9 @@
       <c r="G40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="I40" s="8" t="s">
         <v>60</v>
       </c>
@@ -2007,7 +2009,9 @@
       <c r="G41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="I41" s="8" t="s">
         <v>60</v>
       </c>
@@ -2030,7 +2034,9 @@
       <c r="G42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="I42" s="8" t="s">
         <v>60</v>
       </c>
@@ -2053,7 +2059,9 @@
       <c r="G43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="I43" s="8" t="s">
         <v>60</v>
       </c>
@@ -2076,7 +2084,9 @@
       <c r="G44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="I44" s="8" t="s">
         <v>60</v>
       </c>
@@ -2970,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44ED92B9-110A-4634-8073-FCFB58766896}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3012,55 +3022,59 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="27" t="s">
         <v>63</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="28"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="24"/>
       <c r="H11" s="17"/>
       <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K11" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="28"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="28"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="27" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -3072,7 +3086,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="28"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="24"/>
       <c r="H14" s="17"/>
       <c r="I14" s="13" t="s">
@@ -3082,7 +3096,7 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="28"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="24"/>
       <c r="H15" s="17"/>
       <c r="I15" s="7" t="s">
@@ -3092,17 +3106,17 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="28"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="24"/>
       <c r="H16" s="17"/>
       <c r="I16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="28"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="24"/>
       <c r="H17" s="17"/>
       <c r="I17" s="7" t="s">
@@ -3114,7 +3128,7 @@
       </c>
     </row>
     <row r="18" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="28"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="24"/>
       <c r="H18" s="17"/>
       <c r="I18" s="7" t="s">
@@ -3126,9 +3140,9 @@
       </c>
     </row>
     <row r="19" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="28"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="7" t="s">
         <v>70</v>
       </c>
@@ -3138,61 +3152,71 @@
       </c>
     </row>
     <row r="20" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="28"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="27" t="s">
         <v>73</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K20" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="28"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="24"/>
       <c r="H21" s="17"/>
       <c r="I21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K21" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="28"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="24"/>
       <c r="H22" s="17"/>
       <c r="I22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K22" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="28"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="24"/>
       <c r="H23" s="17"/>
       <c r="I23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K23" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="28"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="27"/>
+      <c r="H24" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="I24" s="7" t="s">
         <v>78</v>
       </c>
@@ -3202,11 +3226,9 @@
       </c>
     </row>
     <row r="25" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="28"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="26" t="s">
-        <v>25</v>
-      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="7" t="s">
         <v>79</v>
       </c>
@@ -3216,79 +3238,75 @@
       </c>
     </row>
     <row r="26" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="28"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="I26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="K26" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="28"/>
-      <c r="G27" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>81</v>
-      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="28"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="24"/>
       <c r="H28" s="17"/>
       <c r="I28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="28"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="28"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="28"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="9"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
@@ -3296,7 +3314,7 @@
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="28"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="9"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
@@ -3304,15 +3322,15 @@
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="28"/>
-      <c r="G33" s="9"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6"/>
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="28"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="10"/>
       <c r="H34" s="12"/>
       <c r="I34" s="7"/>
@@ -3320,7 +3338,7 @@
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="28"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="10"/>
       <c r="H35" s="12"/>
       <c r="I35" s="7"/>
@@ -3328,15 +3346,15 @@
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="28"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="10"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="28"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="10"/>
       <c r="H37" s="12"/>
       <c r="I37" s="6"/>
@@ -3344,7 +3362,7 @@
       <c r="K37" s="8"/>
     </row>
     <row r="38" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="28"/>
+      <c r="F38" s="26"/>
       <c r="G38" s="10"/>
       <c r="H38" s="12"/>
       <c r="I38" s="6"/>
@@ -3352,7 +3370,7 @@
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="28"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="10"/>
       <c r="H39" s="12"/>
       <c r="I39" s="6"/>
@@ -3360,7 +3378,7 @@
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="28"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="10"/>
       <c r="H40" s="12"/>
       <c r="I40" s="6"/>
@@ -3368,7 +3386,7 @@
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="28"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="10"/>
       <c r="H41" s="12"/>
       <c r="I41" s="6"/>
@@ -3376,7 +3394,7 @@
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="28"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="10"/>
       <c r="H42" s="12"/>
       <c r="I42" s="6"/>
@@ -3384,15 +3402,15 @@
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="28"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="12"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="28"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
       <c r="I44" s="6"/>
@@ -3400,7 +3418,7 @@
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="28"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
       <c r="I45" s="6"/>
@@ -3408,7 +3426,7 @@
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="28"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
       <c r="I46" s="6"/>
@@ -3416,33 +3434,25 @@
       <c r="K46" s="8"/>
     </row>
     <row r="47" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="28"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="11"/>
       <c r="H47" s="12"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="6:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="28"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F10:F48"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="F10:F47"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H13:H19"/>
     <mergeCell ref="G13:G19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目进度情况.xlsx
+++ b/项目进度情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\stxt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC9060-14A5-4460-8CD8-1A3C92124E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A513C7-DF45-4359-A6B9-CB465FCF6EBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="85">
   <si>
     <t>创建社团</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2983,7 +2983,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3220,7 +3220,9 @@
       <c r="I24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K24" s="8" t="s">
         <v>60</v>
       </c>
@@ -3232,7 +3234,9 @@
       <c r="I25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="K25" s="8" t="s">
         <v>60</v>
       </c>
@@ -3456,5 +3460,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>